--- a/biology/Médecine/Otto_Kohlrausch/Otto_Kohlrausch.xlsx
+++ b/biology/Médecine/Otto_Kohlrausch/Otto_Kohlrausch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Ludwig Bernhard Kohlrausch (20 mars 1811 - 14 novembre 1854), natif de Barmen (actuellement district de Wuppertal) était un médecin et chirurgien allemand.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Otto Kohlrausch appartient à la famille Kohlrausch qui a donné plusieurs professeurs et chercheurs renommés. Il était notamment l'oncle du physicien Friedrich Kohlrausch (1840-1910)[1].
-Il étudia les sciences naturelles à l’Université de Bonn et la médecine à l’Université Georg-August de Göttingen. Il commença la pratique médicale à Hanovre en 1835[1] et, avec le soutien du gouvernement, fonda un établissement thermal sanitaire à Bad Rehburg en 1841.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Otto Kohlrausch appartient à la famille Kohlrausch qui a donné plusieurs professeurs et chercheurs renommés. Il était notamment l'oncle du physicien Friedrich Kohlrausch (1840-1910).
+Il étudia les sciences naturelles à l’Université de Bonn et la médecine à l’Université Georg-August de Göttingen. Il commença la pratique médicale à Hanovre en 1835 et, avec le soutien du gouvernement, fonda un établissement thermal sanitaire à Bad Rehburg en 1841.
 Il a donné son nom aux valvules de Kohlrausch (ou de Houston), plus fréquemment appelées en français "plis transverses", qui sont des structures anatomiques du rectum. Il a également donné son nom aux muscles de Kohlrausch – muscles longitudinaux de la paroi rectale.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Abrégé des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Physiologie und Chemie in ihrer gegenwärtigen Stellung (La physiologie et la chimie contemporaines), (Göttingen 1844)
 Zur Anatomie und Physiologie der Beckenorgane (Anatomie et physiologie des organes pelviens), (Leipzig 1854)</t>
